--- a/user report/report.xlsx
+++ b/user report/report.xlsx
@@ -157,7 +157,7 @@
       <c r="B2"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
@@ -170,7 +170,7 @@
       <c r="B3"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8h 30m</t>
+          <t>43h</t>
         </is>
       </c>
     </row>
@@ -183,7 +183,7 @@
       <c r="B4"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6h 30m</t>
+          <t>33h 20m</t>
         </is>
       </c>
     </row>
@@ -196,7 +196,7 @@
       <c r="B5"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h 40m</t>
         </is>
       </c>
     </row>
@@ -209,33 +209,33 @@
       <c r="B6"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>6h 15m</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dhibakar C</t>
+          <t>Deepak Raja</t>
         </is>
       </c>
       <c r="B7"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>5h</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fathima Farhana</t>
+          <t>Dhibakar C</t>
         </is>
       </c>
       <c r="B8"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
@@ -248,7 +248,7 @@
       <c r="B9"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
@@ -261,7 +261,7 @@
       <c r="B10"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
@@ -274,7 +274,7 @@
       <c r="B11"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8h 5m</t>
+          <t>40h 25m</t>
         </is>
       </c>
     </row>
@@ -294,280 +294,280 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Meenakshi Velayutham</t>
+          <t>Krishna Gajera</t>
         </is>
       </c>
       <c r="B13"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>31h 55m</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mohamed Hussain A</t>
+          <t>Kuppuswamy</t>
         </is>
       </c>
       <c r="B14"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mohammed Faraz</t>
+          <t>Meenakshi Velayutham</t>
         </is>
       </c>
       <c r="B15"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MohanRaj</t>
+          <t>Mohamed Hussain A</t>
         </is>
       </c>
       <c r="B16"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>16h</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mouli Shankar</t>
+          <t>Mohammed Faraz</t>
         </is>
       </c>
       <c r="B17"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>22h</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NILESH PAGHADAL</t>
+          <t>Mouli Shankar</t>
         </is>
       </c>
       <c r="B18"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4h 20m</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nagarjun g</t>
+          <t>NILESH PAGHADAL</t>
         </is>
       </c>
       <c r="B19"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>9h</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Naresh S</t>
+          <t>Nagarjun g</t>
         </is>
       </c>
       <c r="B20"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nilesh Kumar</t>
+          <t>Naresh S</t>
         </is>
       </c>
       <c r="B21"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nivin K</t>
+          <t>Nilesh Kumar</t>
         </is>
       </c>
       <c r="B22"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pharsana Parveen</t>
+          <t>Nivin K</t>
         </is>
       </c>
       <c r="B23"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5h</t>
+          <t>12h</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Preethi</t>
+          <t>Pavithra Dharmaraj</t>
         </is>
       </c>
       <c r="B24"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8h 5m</t>
+          <t>5h</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raj Kamal</t>
+          <t>Pharsana Parveen</t>
         </is>
       </c>
       <c r="B25"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>15h</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rajaguru Selvaraj</t>
+          <t>Preethi</t>
         </is>
       </c>
       <c r="B26"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12h</t>
+          <t>41h 40m</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ranjith Kumar</t>
+          <t>Raj Kamal</t>
         </is>
       </c>
       <c r="B27"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rupesh Mandal</t>
+          <t>Rajaguru Selvaraj</t>
         </is>
       </c>
       <c r="B28"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7h</t>
+          <t>23h</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Selvamenan</t>
+          <t>Ranjith Kumar</t>
         </is>
       </c>
       <c r="B29"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>21h</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Senthil Kumar</t>
+          <t>Rupesh Mandal</t>
         </is>
       </c>
       <c r="B30"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>25h 30m</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shivam Trivedi</t>
+          <t>Selvamenan</t>
         </is>
       </c>
       <c r="B31"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5h</t>
+          <t>8h</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sivaprakash S</t>
+          <t>Senthil Kumar</t>
         </is>
       </c>
       <c r="B32"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Srinivasan Lingaraj</t>
+          <t>Shahnawaz Khan</t>
         </is>
       </c>
       <c r="B33"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>32h</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vigneshkannan Kathirvel</t>
+          <t>Shashani</t>
         </is>
       </c>
       <c r="B34"/>
@@ -580,95 +580,160 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vimal Kumar</t>
+          <t>Shivam Trivedi</t>
         </is>
       </c>
       <c r="B35"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>9h</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vishhnuvardhan R C</t>
+          <t>Sivaprakash S</t>
         </is>
       </c>
       <c r="B36"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>40h</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yasira Fathima</t>
+          <t>Srinivasan Lingaraj</t>
         </is>
       </c>
       <c r="B37"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>24h</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pratheepa</t>
+          <t>Utharraj Aruchami</t>
         </is>
       </c>
       <c r="B38"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8h 5m</t>
+          <t>28h</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rampriya</t>
+          <t>Vigneshkannan Kathirvel</t>
         </is>
       </c>
       <c r="B39"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>41h 30m</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vimal Kumar</t>
+        </is>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>40h</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vishhnuvardhan R C</t>
+        </is>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>40h</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Yasira Fathima</t>
+        </is>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>32h</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pratheepa</t>
+        </is>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>38h 7m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rampriya</t>
+        </is>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>31h 30m</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>sanjay kumar</t>
         </is>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>5h</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>17h</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t>352h</t>
-        </is>
-      </c>
-      <c r="C41" s="11" t="inlineStr">
-        <is>
-          <t>293h 35m</t>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>913h 30m</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="inlineStr">
+        <is>
+          <t>1219h 52m</t>
         </is>
       </c>
     </row>
